--- a/uploads/files/students.xlsx
+++ b/uploads/files/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WorkStation/chefk/Chefk-Core/uploads/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE212E-5280-C249-8002-D4E3FF477056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F031B-CA65-244A-9A1B-E8B4C842A149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{717462F6-9A81-D54E-AA27-C69D0CF3C48D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{717462F6-9A81-D54E-AA27-C69D0CF3C48D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>status</t>
   </si>
@@ -54,9 +54,6 @@
     <t>1st</t>
   </si>
   <si>
-    <t>parent</t>
-  </si>
-  <si>
     <t>mathew</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>contactType</t>
-  </si>
-  <si>
     <t>contactPersonEmail</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>contactemail@yopmail.com</t>
+  </si>
+  <si>
+    <t>+1234567890</t>
   </si>
 </sst>
 </file>
@@ -147,13 +144,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,30 +468,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADF85F9-9548-A941-A35B-8D8C8CDBC1BC}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10.83203125" style="5"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="12" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="7" customWidth="1"/>
+    <col min="8" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
@@ -501,39 +499,36 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="3">
         <v>36211</v>
@@ -542,38 +537,40 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>9000000001</v>
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F4" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Acceptable Fromate " prompt="Minimum 6 digits and maximum 18 digits, + is optional. E.g 12345678..., +123456789..." sqref="G2:G1048576" xr:uid="{841712EA-DA95-264B-8018-B1C557FE2DCF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Acceptable Value " prompt="active/inactive_x000a_" sqref="L2:L1048576" xr:uid="{F226AFB9-C2AC-E24F-96CD-057600988D60}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Acceptable Value" prompt="male/female_x000a_" sqref="K2:K1048576" xr:uid="{BB8ACF12-E5CE-4142-8991-3EF5BBB13492}"/>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{69A4D4B0-FF87-0545-840B-9E9131930AFC}"/>
   </hyperlinks>
